--- a/Team-Data/2008-09/1-30-2008-09.xlsx
+++ b/Team-Data/2008-09/1-30-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.587</v>
+        <v>0.578</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,10 +751,10 @@
         <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>7.8</v>
@@ -696,16 +763,16 @@
         <v>21.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O2" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P2" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="R2" t="n">
         <v>10.5</v>
@@ -714,7 +781,7 @@
         <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
         <v>21.3</v>
@@ -723,7 +790,7 @@
         <v>13.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -732,19 +799,19 @@
         <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -756,37 +823,37 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -798,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>12</v>
@@ -810,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -866,7 +933,7 @@
         <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
         <v>0.483</v>
@@ -875,73 +942,73 @@
         <v>6.7</v>
       </c>
       <c r="M3" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.4</v>
       </c>
       <c r="P3" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
         <v>10.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>17</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -974,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -986,19 +1053,19 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -1030,19 +1097,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.404</v>
+        <v>0.413</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I4" t="n">
         <v>34</v>
@@ -1051,16 +1118,16 @@
         <v>76.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O4" t="n">
         <v>18.4</v>
@@ -1075,16 +1142,16 @@
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="T4" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1099,25 +1166,25 @@
         <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>92</v>
+        <v>91.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1147,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1168,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -1227,13 +1294,13 @@
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,34 +1309,34 @@
         <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
         <v>5.8</v>
@@ -1278,19 +1345,19 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
         <v>99.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
@@ -1302,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
@@ -1320,13 +1387,13 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1344,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1356,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -1397,82 +1464,82 @@
         <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.795</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.379</v>
+        <v>0.372</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.5</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,52 +1548,52 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,16 +1602,16 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1681,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1711,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.66</v>
+        <v>0.652</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,22 +1843,22 @@
         <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="P8" t="n">
         <v>31.2</v>
@@ -1803,49 +1870,49 @@
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
         <v>41.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
         <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA8" t="n">
         <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1854,16 +1921,16 @@
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
         <v>14</v>
@@ -1899,13 +1966,13 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>0.556</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
         <v>17</v>
@@ -1985,79 +2052,79 @@
         <v>10.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T9" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U9" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V9" t="n">
         <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
         <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
         <v>27</v>
       </c>
-      <c r="AM9" t="n">
-        <v>28</v>
-      </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
         <v>18</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2087,13 +2154,13 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.319</v>
+        <v>0.304</v>
       </c>
       <c r="H10" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I10" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
         <v>6.5</v>
@@ -2152,28 +2219,28 @@
         <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O10" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="P10" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2182,25 +2249,25 @@
         <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y10" t="n">
         <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.7</v>
+        <v>107</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2230,7 +2297,7 @@
         <v>16</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
@@ -2251,13 +2318,13 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2269,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="BA10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,10 +2461,10 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2406,7 +2473,7 @@
         <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>9</v>
@@ -2424,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2433,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2445,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2553,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>0.404</v>
+        <v>0.391</v>
       </c>
       <c r="H12" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I12" t="n">
         <v>39</v>
@@ -2507,25 +2574,25 @@
         <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M12" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P12" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.804</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2534,7 +2601,7 @@
         <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>22.8</v>
@@ -2552,31 +2619,31 @@
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH12" t="n">
         <v>4</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2588,19 +2655,19 @@
         <v>16</v>
       </c>
       <c r="AL12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM12" t="n">
         <v>8</v>
       </c>
-      <c r="AM12" t="n">
-        <v>7</v>
-      </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2621,16 +2688,16 @@
         <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY12" t="n">
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="n">
-        <v>0.217</v>
+        <v>0.222</v>
       </c>
       <c r="H13" t="n">
         <v>48.7</v>
@@ -2686,43 +2753,43 @@
         <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K13" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L13" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M13" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S13" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T13" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2734,19 +2801,19 @@
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8</v>
+        <v>-7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
@@ -2788,22 +2855,22 @@
         <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,10 +2879,10 @@
         <v>28</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -2865,79 +2932,79 @@
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="J14" t="n">
-        <v>84.2</v>
+        <v>83.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>13.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.5</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>2</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3149,7 +3216,7 @@
         <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>9</v>
@@ -3173,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
         <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.556</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J16" t="n">
         <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N16" t="n">
         <v>0.355</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
@@ -3271,55 +3338,55 @@
         <v>12.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
         <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN16" t="n">
         <v>20</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR16" t="n">
         <v>23</v>
@@ -3355,19 +3422,19 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC16" t="n">
         <v>14</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -3399,19 +3466,19 @@
         <v>49</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.469</v>
+        <v>0.449</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
         <v>81.5</v>
@@ -3420,13 +3487,13 @@
         <v>0.447</v>
       </c>
       <c r="L17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
         <v>19.7</v>
@@ -3435,25 +3502,25 @@
         <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,16 +3529,16 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3498,7 +3565,7 @@
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
@@ -3516,10 +3583,10 @@
         <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>14</v>
@@ -3537,10 +3604,10 @@
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
@@ -3549,7 +3616,7 @@
         <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -3578,52 +3645,52 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J18" t="n">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R18" t="n">
         <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
         <v>42.3</v>
@@ -3632,37 +3699,37 @@
         <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.4</v>
+        <v>-3.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3677,25 +3744,25 @@
         <v>6</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.426</v>
+        <v>0.435</v>
       </c>
       <c r="H19" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L19" t="n">
         <v>7.8</v>
@@ -3790,82 +3857,82 @@
         <v>20.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O19" t="n">
         <v>19.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R19" t="n">
         <v>11.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V19" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W19" t="n">
         <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN19" t="n">
         <v>9</v>
@@ -3883,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>20</v>
@@ -3901,16 +3968,16 @@
         <v>21</v>
       </c>
       <c r="AY19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA19" t="n">
         <v>18</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>27</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>17</v>
-      </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -3942,82 +4009,82 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.651</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
         <v>76.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
         <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.39</v>
+        <v>0.394</v>
       </c>
       <c r="O20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T20" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="U20" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y20" t="n">
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD20" t="n">
         <v>30</v>
@@ -4026,37 +4093,37 @@
         <v>7</v>
       </c>
       <c r="AF20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4071,7 +4138,7 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4080,13 +4147,13 @@
         <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
@@ -4256,7 +4323,7 @@
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>14</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ21" t="n">
         <v>5</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
         <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="n">
-        <v>0.234</v>
+        <v>0.239</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L22" t="n">
         <v>4.1</v>
@@ -4336,7 +4403,7 @@
         <v>10.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.378</v>
+        <v>0.383</v>
       </c>
       <c r="O22" t="n">
         <v>19.6</v>
@@ -4345,10 +4412,10 @@
         <v>25.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R22" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S22" t="n">
         <v>31.1</v>
@@ -4357,16 +4424,16 @@
         <v>42.9</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="W22" t="n">
         <v>6.9</v>
       </c>
       <c r="X22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y22" t="n">
         <v>5.3</v>
@@ -4375,16 +4442,16 @@
         <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4402,7 +4469,7 @@
         <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4414,28 +4481,28 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>10</v>
       </c>
       <c r="AS22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT22" t="n">
         <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,13 +4517,13 @@
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4626,13 +4693,13 @@
         <v>15</v>
       </c>
       <c r="AX23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>8</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="N24" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O24" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P24" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="R24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U24" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W24" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
         <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4778,7 +4845,7 @@
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
@@ -4787,7 +4854,7 @@
         <v>18</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,25 +4863,25 @@
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4823,7 +4890,7 @@
         <v>22</v>
       </c>
       <c r="BC24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
@@ -4975,13 +5042,13 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4993,10 +5060,10 @@
         <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.622</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O26" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
         <v>40.9</v>
@@ -5088,7 +5155,7 @@
         <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
@@ -5097,28 +5164,28 @@
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
@@ -5127,13 +5194,13 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>21</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>22</v>
-      </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,13 +5209,13 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>18</v>
@@ -5172,19 +5239,19 @@
         <v>18</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L27" t="n">
         <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
         <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5279,19 +5346,19 @@
         <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z27" t="n">
         <v>23.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="AD27" t="n">
         <v>2</v>
@@ -5309,28 +5376,28 @@
         <v>8</v>
       </c>
       <c r="AI27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
         <v>22</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN27" t="n">
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>4</v>
@@ -5339,16 +5406,16 @@
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV27" t="n">
         <v>25</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>26</v>
       </c>
       <c r="AW27" t="n">
         <v>25</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5515,13 +5582,13 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="n">
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J29" t="n">
         <v>78.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L29" t="n">
         <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O29" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P29" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="R29" t="n">
         <v>8.9</v>
@@ -5628,10 +5695,10 @@
         <v>30</v>
       </c>
       <c r="T29" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V29" t="n">
         <v>13.5</v>
@@ -5646,16 +5713,16 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA29" t="n">
         <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
         <v>2</v>
@@ -5664,22 +5731,22 @@
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5691,7 +5758,7 @@
         <v>6</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
         <v>22</v>
@@ -5706,10 +5773,10 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5721,13 +5788,13 @@
         <v>17</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -5762,64 +5829,64 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
         <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L30" t="n">
         <v>4.6</v>
       </c>
       <c r="M30" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O30" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
         <v>12.1</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T30" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U30" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.9</v>
@@ -5831,19 +5898,19 @@
         <v>22.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5858,19 +5925,19 @@
         <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
         <v>5</v>
       </c>
       <c r="AL30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN30" t="n">
         <v>26</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>15</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5906,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.196</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5968,22 +6035,22 @@
         <v>0.444</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R31" t="n">
         <v>11.6</v>
@@ -5995,10 +6062,10 @@
         <v>39.6</v>
       </c>
       <c r="U31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6007,10 +6074,10 @@
         <v>4.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
         <v>19.2</v>
@@ -6019,10 +6086,10 @@
         <v>93.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6034,13 +6101,13 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -6073,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6082,10 +6149,10 @@
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-30-2008-09</t>
+          <t>2009-01-30</t>
         </is>
       </c>
     </row>
